--- a/templates/f10_template.xlsx
+++ b/templates/f10_template.xlsx
@@ -184,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -445,6 +445,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -563,7 +578,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1100,7 +1115,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1109,19 +1124,8 @@
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="4" width="11.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="5.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" customWidth="1"/>
-    <col min="9" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="5.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="5.7109375" style="1" customWidth="1"/>
-    <col min="25" max="27" width="6.5703125" style="1" customWidth="1"/>
-    <col min="28" max="29" width="5.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="7.85546875" style="1" customWidth="1"/>
+    <col min="6" max="29" width="5.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="1" customWidth="1"/>
     <col min="31" max="31" width="5.7109375" style="1" customWidth="1"/>
     <col min="32" max="16384" width="11.5703125" style="1"/>
   </cols>

--- a/templates/f10_template.xlsx
+++ b/templates/f10_template.xlsx
@@ -581,6 +581,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -589,6 +613,117 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -608,39 +743,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -650,12 +752,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -683,12 +779,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -706,99 +796,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1115,7 +1115,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomRight" activeCell="Z13" sqref="Z13"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1132,238 +1132,238 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="38" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="84" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="38" t="s">
+      <c r="J1" s="65"/>
+      <c r="K1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="38" t="s">
+      <c r="O1" s="47"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="S1" s="38" t="s">
+      <c r="R1" s="48"/>
+      <c r="S1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="58" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="56" t="s">
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="68" t="s">
         <v>7</v>
       </c>
       <c r="AA1" s="2"/>
-      <c r="AB1" s="38" t="s">
+      <c r="AB1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="40"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="48"/>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="61" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="62"/>
-      <c r="X2" s="61" t="s">
+      <c r="W2" s="79"/>
+      <c r="X2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="57"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="69"/>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="43"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="88"/>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="90" t="s">
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="62"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="79"/>
       <c r="Z3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AA3" s="3"/>
-      <c r="AB3" s="41" t="s">
+      <c r="AB3" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="43"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="88"/>
     </row>
     <row r="4" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="38" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="56"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="68"/>
       <c r="AA4" s="3"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="43"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="88"/>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="57"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="69"/>
       <c r="AA5" s="9"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="43"/>
-    </row>
-    <row r="6" spans="1:30" s="10" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="80" t="s">
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="88"/>
+    </row>
+    <row r="6" spans="1:30" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="44" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="89" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="10" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="81"/>
-      <c r="C7" s="49" t="s">
+    <row r="7" spans="1:30" s="10" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="110"/>
+      <c r="C7" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -1388,15 +1388,15 @@
       <c r="AA7" s="21"/>
       <c r="AB7" s="21"/>
       <c r="AC7" s="22"/>
-      <c r="AD7" s="45"/>
-    </row>
-    <row r="8" spans="1:30" s="10" customFormat="1" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="81"/>
-      <c r="C8" s="90" t="s">
+      <c r="AD7" s="90"/>
+    </row>
+    <row r="8" spans="1:30" s="10" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="110"/>
+      <c r="C8" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="80" t="s">
+      <c r="D8" s="77"/>
+      <c r="E8" s="84" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="5"/>
@@ -1423,13 +1423,13 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="45"/>
-    </row>
-    <row r="9" spans="1:30" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="82"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="82"/>
+      <c r="AD8" s="90"/>
+    </row>
+    <row r="9" spans="1:30" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="85"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1454,17 +1454,17 @@
       <c r="AA9" s="14"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="45"/>
-    </row>
-    <row r="10" spans="1:30" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="AD9" s="90"/>
+    </row>
+    <row r="10" spans="1:30" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="36">
         <v>1</v>
       </c>
-      <c r="C10" s="83">
+      <c r="C10" s="70">
         <v>2</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
@@ -1489,13 +1489,13 @@
       <c r="AA10" s="36"/>
       <c r="AB10" s="36"/>
       <c r="AC10" s="37"/>
-      <c r="AD10" s="46"/>
+      <c r="AD10" s="91"/>
     </row>
     <row r="11" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="19"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -1524,9 +1524,9 @@
     </row>
     <row r="12" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="19"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="29"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -1555,9 +1555,9 @@
     </row>
     <row r="13" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="19"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="29"/>
       <c r="G13" s="27"/>
       <c r="H13" s="28"/>
@@ -1586,9 +1586,9 @@
     </row>
     <row r="14" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="18"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
@@ -1617,9 +1617,9 @@
     </row>
     <row r="15" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -1648,9 +1648,9 @@
     </row>
     <row r="16" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="19"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
@@ -1679,9 +1679,9 @@
     </row>
     <row r="17" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="19"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
@@ -1710,9 +1710,9 @@
     </row>
     <row r="18" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="19"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
@@ -1741,9 +1741,9 @@
     </row>
     <row r="19" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="19"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
@@ -1772,9 +1772,9 @@
     </row>
     <row r="20" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -1803,9 +1803,9 @@
     </row>
     <row r="21" spans="2:30" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="25"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -1834,9 +1834,9 @@
     </row>
     <row r="22" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -1865,9 +1865,9 @@
     </row>
     <row r="23" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="24"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -1896,9 +1896,9 @@
     </row>
     <row r="24" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="24"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
@@ -1927,9 +1927,9 @@
     </row>
     <row r="25" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="24"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
@@ -1958,9 +1958,9 @@
     </row>
     <row r="26" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -1989,9 +1989,9 @@
     </row>
     <row r="27" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -2020,9 +2020,9 @@
     </row>
     <row r="28" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -2051,9 +2051,9 @@
     </row>
     <row r="29" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -2082,9 +2082,9 @@
     </row>
     <row r="30" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -2113,9 +2113,9 @@
     </row>
     <row r="31" spans="2:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="26"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
       <c r="H31" s="34"/>
@@ -2144,34 +2144,22 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="S1:U2"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="Q1:R2"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AD6:AD10"/>
+    <mergeCell ref="AB3:AD5"/>
+    <mergeCell ref="C6:AC6"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="K1:M2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N1:P2"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="S3:U5"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="B1:E5"/>
+    <mergeCell ref="B6:B9"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="I1:J5"/>
@@ -2188,22 +2176,34 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AD6:AD10"/>
-    <mergeCell ref="AB3:AD5"/>
-    <mergeCell ref="C6:AC6"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="K1:M2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="N1:P2"/>
-    <mergeCell ref="F4:H5"/>
-    <mergeCell ref="S3:U5"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="B1:E5"/>
-    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="S1:U2"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="Q1:R2"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C27:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.27559055118110237" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.11811023622047245"/>
